--- a/books_years.xlsx
+++ b/books_years.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AAE6B66-7F9F-4444-8A87-1E6FDF1B9259}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08514AB9-F42B-4016-B5DC-9323FF437AF8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="53850" yWindow="-7035" windowWidth="23070" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>353505.0</t>
   </si>
@@ -176,18 +176,6 @@
   </si>
   <si>
     <t>5211712.3</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>Sheets</t>
-  </si>
-  <si>
-    <t>Circulation</t>
   </si>
 </sst>
 </file>
@@ -505,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -517,380 +505,366 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" t="s">
-        <v>53</v>
+      <c r="A1">
+        <v>1940</v>
+      </c>
+      <c r="B1">
+        <v>32545</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>54</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1940</v>
+        <v>1950</v>
       </c>
       <c r="B2">
-        <v>32545</v>
+        <v>28486</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1950</v>
+        <v>1960</v>
       </c>
       <c r="B3">
-        <v>28486</v>
+        <v>48940</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1960</v>
+        <v>1970</v>
       </c>
       <c r="B4">
-        <v>48940</v>
+        <v>50040</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="B5">
-        <v>50040</v>
+        <v>49563</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1980</v>
+        <v>1990</v>
       </c>
       <c r="B6">
-        <v>49563</v>
+        <v>47733</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>1990</v>
+        <v>2000</v>
       </c>
       <c r="B7">
-        <v>47733</v>
+        <v>59543</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B8">
-        <v>59543</v>
+        <v>70332</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B9">
-        <v>70332</v>
+        <v>69749</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B10">
-        <v>69749</v>
+        <v>80971</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B11">
-        <v>80971</v>
+        <v>89066</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B12">
-        <v>89066</v>
+        <v>95498</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B13">
-        <v>95498</v>
+        <v>102268</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B14">
-        <v>102268</v>
+        <v>108791</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B15">
-        <v>108791</v>
+        <v>123336</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B16">
-        <v>123336</v>
+        <v>127596</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B17">
-        <v>127596</v>
+        <v>121738</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B18">
-        <v>121738</v>
+        <v>122915</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B19">
-        <v>122915</v>
+        <v>116888</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B20">
-        <v>116888</v>
+        <v>120512</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B21">
-        <v>120512</v>
+        <v>112126</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B22">
-        <v>112126</v>
+        <v>112647</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B23">
-        <v>112647</v>
+        <v>117076</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B24">
-        <v>117076</v>
+        <v>117359</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B25">
-        <v>117359</v>
+        <v>116915</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B26">
-        <v>116915</v>
+        <v>115171</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>2019</v>
-      </c>
-      <c r="B27">
-        <v>115171</v>
-      </c>
-      <c r="C27" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" t="s">
         <v>51</v>
       </c>
     </row>
